--- a/biology/Zoologie/Cherninia/Cherninia.xlsx
+++ b/biology/Zoologie/Cherninia/Cherninia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cherninia est un genre fossile de mastodonsauridés temnospondyles. Selon Paleobiology Database en 2022, ce genre est représenté par deux espèces Cherninia denwai et Cherninia megarhina.
 </t>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cherninia denwai a été publiée par Mukherjee et Sengupta en 1998[1] L'espèce type, Cherninia denwai,[réf. nécessaire] est connue de la Formation de Denwa en Inde. 
-Il est basé sur un crâne massif, ISI A 54, qui était à l'origine considéré comme une espèce de Parotosuchus en 1998[1] avant de se voir attribuer son propre genre en 2001[2].
-Une autre espèce, Cherninia megarhina, est connue de la Formation supérieure de Ntawere en Zambie. C. megarhina est basé sur un autre grand crâne, BP/1/4223, qui avait également été précédemment référé au genre Parotosuchus[2],[3],[4]. Bien qu'il ne soit pas aussi bien conservé que le crâne de C. denwai, BP/1/4233 a été décrit plus tôt en 1974[5]. Il a été décrit par Sharon Chernin, paléontologue à l'Institut Bernard Price et homonyme du genre[2],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cherninia denwai a été publiée par Mukherjee et Sengupta en 1998 L'espèce type, Cherninia denwai,[réf. nécessaire] est connue de la Formation de Denwa en Inde. 
+Il est basé sur un crâne massif, ISI A 54, qui était à l'origine considéré comme une espèce de Parotosuchus en 1998 avant de se voir attribuer son propre genre en 2001.
+Une autre espèce, Cherninia megarhina, est connue de la Formation supérieure de Ntawere en Zambie. C. megarhina est basé sur un autre grand crâne, BP/1/4223, qui avait également été précédemment référé au genre Parotosuchus. Bien qu'il ne soit pas aussi bien conservé que le crâne de C. denwai, BP/1/4233 a été décrit plus tôt en 1974. Il a été décrit par Sharon Chernin, paléontologue à l'Institut Bernard Price et homonyme du genre,.
 </t>
         </is>
       </c>
